--- a/biology/Botanique/Phillyrea_latifolia/Phillyrea_latifolia.xlsx
+++ b/biology/Botanique/Phillyrea_latifolia/Phillyrea_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phillyrea latifolia (ou Filaire à large feuille[1]) est un arbuste méditerranéen anémophile de la famille des Oleaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phillyrea latifolia (ou Filaire à large feuille) est un arbuste méditerranéen anémophile de la famille des Oleaceae.
 Il appartient au genre Phillyrea qui regroupe trois espèces, les autres étant Phillyrea angustifolia et Phillyrea media.
 C'est une espèce assez proche de l'olivier européen.
 </t>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbrisseau à rameaux dressés ou étalés, feuilles ovales larges de 1 à 2 cm, dentées; fruits de 5 à 8 mm de diamètre, à noyau sphérique, fleurs blanches, jaunes ou verdâtres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbrisseau à rameaux dressés ou étalés, feuilles ovales larges de 1 à 2 cm, dentées; fruits de 5 à 8 mm de diamètre, à noyau sphérique, fleurs blanches, jaunes ou verdâtres.
 </t>
         </is>
       </c>
@@ -544,12 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste a la garrigue pour habitat typique ; il est présent autour du bassin méditerranéen, souvent associé au chêne vert. Plus résistant au froid que l'espèce à feuilles étroites, on le trouve en France dans le Sud-ouest jusqu'au sud de la Vendée et de la Vienne et dans l'est jusqu'au Haut-Bugey, dans l'Ain[3].
-Utilisation
-Il a été introduit dans plusieurs autres régions comme plante d'ornement.
-Le semis est possible dès la récolte, la levée est irrégulière; l'espèce se plaît en sol léger sableux sec, au soleil ou mi-ombre, dans des endroits bien exposés lorsqu'on le cultive en Europe centrale[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste a la garrigue pour habitat typique ; il est présent autour du bassin méditerranéen, souvent associé au chêne vert. Plus résistant au froid que l'espèce à feuilles étroites, on le trouve en France dans le Sud-ouest jusqu'au sud de la Vendée et de la Vienne et dans l'est jusqu'au Haut-Bugey, dans l'Ain.
 </t>
         </is>
       </c>
@@ -575,10 +588,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été introduit dans plusieurs autres régions comme plante d'ornement.
+Le semis est possible dès la récolte, la levée est irrégulière; l'espèce se plaît en sol léger sableux sec, au soleil ou mi-ombre, dans des endroits bien exposés lorsqu'on le cultive en Europe centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phillyrea_latifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phillyrea_latifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Phillyrea angustifolia - Filaire à feuille étroite
 Phillyrea media - Filaire intermédiaire
